--- a/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Nefropatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Nefropatías (INC).xlsx
@@ -514,7 +514,7 @@
         <v>44.44547359010058</v>
       </c>
       <c r="B3" t="n">
-        <v>29.55854996992883</v>
+        <v>29.55854996992884</v>
       </c>
       <c r="C3" t="n">
         <v>59.8081933673135</v>
@@ -526,16 +526,16 @@
         <v>-3.132610965026835</v>
       </c>
       <c r="F3" t="n">
-        <v>12.56324273934792</v>
+        <v>12.56324273934791</v>
       </c>
       <c r="G3" t="n">
         <v>10.80983679783726</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4670903377665</v>
+        <v>3.467090337766493</v>
       </c>
       <c r="I3" t="n">
-        <v>20.81018269942083</v>
+        <v>20.81018269942084</v>
       </c>
     </row>
     <row r="4">
@@ -546,13 +546,13 @@
         <v>33.76703579924678</v>
       </c>
       <c r="C4" t="n">
-        <v>63.52366313513336</v>
+        <v>63.52366313513335</v>
       </c>
       <c r="D4" t="n">
         <v>15.58115209878986</v>
       </c>
       <c r="E4" t="n">
-        <v>8.266579145070892</v>
+        <v>8.266579145070885</v>
       </c>
       <c r="F4" t="n">
         <v>24.38741633400444</v>
@@ -561,7 +561,7 @@
         <v>20.17711831968099</v>
       </c>
       <c r="H4" t="n">
-        <v>11.88188497869239</v>
+        <v>11.88188497869238</v>
       </c>
       <c r="I4" t="n">
         <v>30.36286495849242</v>
@@ -572,25 +572,25 @@
         <v>46.39936744302874</v>
       </c>
       <c r="B5" t="n">
-        <v>31.69196035503919</v>
+        <v>31.6919603550392</v>
       </c>
       <c r="C5" t="n">
         <v>61.43106343630103</v>
       </c>
       <c r="D5" t="n">
-        <v>5.064358441253795</v>
+        <v>5.064358441253802</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.825079645799569</v>
+        <v>-1.825079645799576</v>
       </c>
       <c r="F5" t="n">
-        <v>13.90120162022912</v>
+        <v>13.90120162022911</v>
       </c>
       <c r="G5" t="n">
         <v>13.94545940714678</v>
       </c>
       <c r="H5" t="n">
-        <v>6.250811572072351</v>
+        <v>6.250811572072337</v>
       </c>
       <c r="I5" t="n">
         <v>23.92672016441583</v>
@@ -601,7 +601,7 @@
         <v>56.07501777429304</v>
       </c>
       <c r="B6" t="n">
-        <v>41.57077525374196</v>
+        <v>41.57077525374197</v>
       </c>
       <c r="C6" t="n">
         <v>69.81109937564152</v>
@@ -619,7 +619,7 @@
         <v>34.29894212987133</v>
       </c>
       <c r="H6" t="n">
-        <v>24.3588589307654</v>
+        <v>24.35885893076539</v>
       </c>
       <c r="I6" t="n">
         <v>44.63400375485631</v>
@@ -659,13 +659,13 @@
         <v>79.68136724620429</v>
       </c>
       <c r="B8" t="n">
-        <v>65.72897757204652</v>
+        <v>65.7289775720465</v>
       </c>
       <c r="C8" t="n">
         <v>90.40380684818344</v>
       </c>
       <c r="D8" t="n">
-        <v>99.66416602244182</v>
+        <v>99.6641660224418</v>
       </c>
       <c r="E8" t="n">
         <v>87.96153449937864</v>
@@ -677,7 +677,7 @@
         <v>86.0717753436752</v>
       </c>
       <c r="H8" t="n">
-        <v>70.06723137653316</v>
+        <v>70.06723137653319</v>
       </c>
       <c r="I8" t="n">
         <v>97.50809292405901</v>
@@ -706,7 +706,7 @@
         <v>32.76520307480479</v>
       </c>
       <c r="H9" t="n">
-        <v>22.89139662007138</v>
+        <v>22.89139662007137</v>
       </c>
       <c r="I9" t="n">
         <v>43.10483524889202</v>
@@ -735,7 +735,7 @@
         <v>87.6906950227123</v>
       </c>
       <c r="H10" t="n">
-        <v>71.34568945337445</v>
+        <v>71.34568945337446</v>
       </c>
       <c r="I10" t="n">
         <v>99.11001199635632</v>
@@ -793,7 +793,7 @@
         <v>46.88702688499514</v>
       </c>
       <c r="H12" t="n">
-        <v>35.36837057214439</v>
+        <v>35.36837057214438</v>
       </c>
       <c r="I12" t="n">
         <v>57.37597404525591</v>
@@ -862,7 +862,7 @@
         <v>48.35326129595691</v>
       </c>
       <c r="B15" t="n">
-        <v>33.82537074014955</v>
+        <v>33.82537074014956</v>
       </c>
       <c r="C15" t="n">
         <v>63.05393350528856</v>
@@ -877,10 +877,10 @@
         <v>15.23916050111031</v>
       </c>
       <c r="G15" t="n">
-        <v>17.0810820164563</v>
+        <v>17.08108201645629</v>
       </c>
       <c r="H15" t="n">
-        <v>9.034532806378195</v>
+        <v>9.034532806378181</v>
       </c>
       <c r="I15" t="n">
         <v>27.04325762941082</v>
@@ -909,7 +909,7 @@
         <v>34.33301437945956</v>
       </c>
       <c r="H16" t="n">
-        <v>24.2832572372243</v>
+        <v>24.28325723722429</v>
       </c>
       <c r="I16" t="n">
         <v>44.66310398138952</v>
@@ -949,7 +949,7 @@
         <v>48.57428527404928</v>
       </c>
       <c r="B18" t="n">
-        <v>33.50361043423897</v>
+        <v>33.50361043423898</v>
       </c>
       <c r="C18" t="n">
         <v>63.43188888899535</v>
@@ -970,7 +970,7 @@
         <v>11.95748667223348</v>
       </c>
       <c r="I18" t="n">
-        <v>30.33376473195922</v>
+        <v>30.33376473195921</v>
       </c>
     </row>
     <row r="19">
@@ -999,7 +999,7 @@
         <v>51.97115477337287</v>
       </c>
       <c r="I19" t="n">
-        <v>76.5686392429987</v>
+        <v>76.56863924299871</v>
       </c>
     </row>
     <row r="20">
@@ -1007,7 +1007,7 @@
         <v>58.02891162722121</v>
       </c>
       <c r="B20" t="n">
-        <v>43.70418563885232</v>
+        <v>43.70418563885233</v>
       </c>
       <c r="C20" t="n">
         <v>71.43396944462906</v>
@@ -1025,10 +1025,10 @@
         <v>37.43456473918084</v>
       </c>
       <c r="H20" t="n">
-        <v>27.14258016507124</v>
+        <v>27.14258016507123</v>
       </c>
       <c r="I20" t="n">
-        <v>47.75054121985131</v>
+        <v>47.7505412198513</v>
       </c>
     </row>
     <row r="21">
@@ -1036,7 +1036,7 @@
         <v>52.73411871527864</v>
       </c>
       <c r="B21" t="n">
-        <v>38.2972819344753</v>
+        <v>38.29728193447531</v>
       </c>
       <c r="C21" t="n">
         <v>66.86117751924643</v>
@@ -1045,7 +1045,7 @@
         <v>18.51853007422773</v>
       </c>
       <c r="E21" t="n">
-        <v>10.87118121338055</v>
+        <v>10.87118121338054</v>
       </c>
       <c r="F21" t="n">
         <v>27.11123462326199</v>
@@ -1054,7 +1054,7 @@
         <v>26.48243578788825</v>
       </c>
       <c r="H21" t="n">
-        <v>17.37372575376298</v>
+        <v>17.37372575376297</v>
       </c>
       <c r="I21" t="n">
         <v>36.62504011501562</v>
@@ -1074,7 +1074,7 @@
         <v>101.1790138618775</v>
       </c>
       <c r="E22" t="n">
-        <v>89.24814467831615</v>
+        <v>89.24814467831617</v>
       </c>
       <c r="F22" t="n">
         <v>109.0454464436757</v>
@@ -1083,7 +1083,7 @@
         <v>89.27554245216118</v>
       </c>
       <c r="H22" t="n">
-        <v>72.69974922375681</v>
+        <v>72.69974922375683</v>
       </c>
       <c r="I22" t="n">
         <v>100.6828308421204</v>
@@ -1094,7 +1094,7 @@
         <v>49.07816248704795</v>
       </c>
       <c r="B23" t="n">
-        <v>34.36522520268912</v>
+        <v>34.36522520268913</v>
       </c>
       <c r="C23" t="n">
         <v>63.68182004750631</v>
@@ -1103,7 +1103,7 @@
         <v>7.182767361351502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1571384733310737</v>
+        <v>0.1571384733310666</v>
       </c>
       <c r="F23" t="n">
         <v>15.81233888656058</v>
@@ -1112,10 +1112,10 @@
         <v>18.58074882193461</v>
       </c>
       <c r="H23" t="n">
-        <v>10.57759681061331</v>
+        <v>10.57759681061329</v>
       </c>
       <c r="I23" t="n">
-        <v>28.5433259088419</v>
+        <v>28.54332590884191</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         <v>41.96591330125367</v>
       </c>
       <c r="C24" t="n">
-        <v>69.94876074484854</v>
+        <v>69.94876074484853</v>
       </c>
       <c r="D24" t="n">
         <v>29.8235202192928</v>
@@ -1141,7 +1141,7 @@
         <v>34.35005050425367</v>
       </c>
       <c r="H24" t="n">
-        <v>24.24545639045375</v>
+        <v>24.24545639045374</v>
       </c>
       <c r="I24" t="n">
         <v>44.67765409465612</v>
@@ -1161,7 +1161,7 @@
         <v>28.33944494766828</v>
       </c>
       <c r="E25" t="n">
-        <v>20.2986137744925</v>
+        <v>20.29861377449249</v>
       </c>
       <c r="F25" t="n">
         <v>36.97637042409188</v>
@@ -1170,7 +1170,7 @@
         <v>31.18035564535592</v>
       </c>
       <c r="H25" t="n">
-        <v>21.537336849689</v>
+        <v>21.53733684968899</v>
       </c>
       <c r="I25" t="n">
         <v>41.53201640312793</v>
@@ -1199,7 +1199,7 @@
         <v>26.4142912887118</v>
       </c>
       <c r="H26" t="n">
-        <v>17.52492914084517</v>
+        <v>17.52492914084516</v>
       </c>
       <c r="I26" t="n">
         <v>36.5668396619492</v>
@@ -1286,7 +1286,7 @@
         <v>20.14856012658937</v>
       </c>
       <c r="H29" t="n">
-        <v>11.96945742776623</v>
+        <v>11.96945742776622</v>
       </c>
       <c r="I29" t="n">
         <v>30.1015946413394</v>
@@ -1326,7 +1326,7 @@
         <v>72.74752339280245</v>
       </c>
       <c r="B31" t="n">
-        <v>58.65514020349758</v>
+        <v>58.65514020349757</v>
       </c>
       <c r="C31" t="n">
         <v>84.32041464311723</v>
@@ -1344,7 +1344,7 @@
         <v>70.3706181605326</v>
       </c>
       <c r="H31" t="n">
-        <v>56.24816840961053</v>
+        <v>56.24816840961054</v>
       </c>
       <c r="I31" t="n">
         <v>81.43196519131121</v>
@@ -1373,7 +1373,7 @@
         <v>78.30637737607447</v>
       </c>
       <c r="H32" t="n">
-        <v>62.96869565921911</v>
+        <v>62.96869565921912</v>
       </c>
       <c r="I32" t="n">
         <v>89.54277962401812</v>
@@ -1384,7 +1384,7 @@
         <v>73.97651605463957</v>
       </c>
       <c r="B33" t="n">
-        <v>60.24869612606837</v>
+        <v>60.24869612606836</v>
       </c>
       <c r="C33" t="n">
         <v>85.315398169887</v>
@@ -1396,16 +1396,16 @@
         <v>67.13491182816897</v>
       </c>
       <c r="F33" t="n">
-        <v>85.92237711231773</v>
+        <v>85.92237711231772</v>
       </c>
       <c r="G33" t="n">
         <v>72.00657396436381</v>
       </c>
       <c r="H33" t="n">
-        <v>57.48882563968126</v>
+        <v>57.48882563968127</v>
       </c>
       <c r="I33" t="n">
-        <v>83.04843437687511</v>
+        <v>83.04843437687512</v>
       </c>
     </row>
     <row r="34">
@@ -1460,7 +1460,7 @@
         <v>35.90082568411431</v>
       </c>
       <c r="H35" t="n">
-        <v>25.67511785437722</v>
+        <v>25.67511785437721</v>
       </c>
       <c r="I35" t="n">
         <v>46.22137271388701</v>
@@ -1509,7 +1509,7 @@
         <v>19.21440885832324</v>
       </c>
       <c r="E37" t="n">
-        <v>11.53540744313905</v>
+        <v>11.53540744313904</v>
       </c>
       <c r="F37" t="n">
         <v>27.73231353620743</v>
@@ -1518,7 +1518,7 @@
         <v>28.01617484295478</v>
       </c>
       <c r="H37" t="n">
-        <v>18.841188064457</v>
+        <v>18.84118806445699</v>
       </c>
       <c r="I37" t="n">
         <v>38.15420862097991</v>
@@ -1541,7 +1541,7 @@
         <v>68.46336428768598</v>
       </c>
       <c r="F38" t="n">
-        <v>87.16453493820859</v>
+        <v>87.1645349382086</v>
       </c>
       <c r="G38" t="n">
         <v>75.07405207449688</v>
@@ -1558,7 +1558,7 @@
         <v>63.51273884069354</v>
       </c>
       <c r="B39" t="n">
-        <v>49.50622739074105</v>
+        <v>49.50622739074106</v>
       </c>
       <c r="C39" t="n">
         <v>76.1444227392187</v>
@@ -1605,7 +1605,7 @@
         <v>23.3127409289905</v>
       </c>
       <c r="H40" t="n">
-        <v>14.66560621299823</v>
+        <v>14.66560621299822</v>
       </c>
       <c r="I40" t="n">
         <v>33.47940242348741</v>
@@ -1645,7 +1645,7 @@
         <v>70.44658269409538</v>
       </c>
       <c r="B42" t="n">
-        <v>56.58006475929</v>
+        <v>56.58006475928999</v>
       </c>
       <c r="C42" t="n">
         <v>82.2278149442849</v>
@@ -1663,7 +1663,7 @@
         <v>64.13895924799839</v>
       </c>
       <c r="H42" t="n">
-        <v>50.61709500299049</v>
+        <v>50.6170950029905</v>
       </c>
       <c r="I42" t="n">
         <v>74.99582039723461</v>
@@ -1721,7 +1721,7 @@
         <v>57.88475015417347</v>
       </c>
       <c r="H44" t="n">
-        <v>45.01185168760825</v>
+        <v>45.01185168760826</v>
       </c>
       <c r="I44" t="n">
         <v>68.77729558051122</v>
@@ -1761,7 +1761,7 @@
         <v>71.77057646633837</v>
       </c>
       <c r="B46" t="n">
-        <v>57.5884350109424</v>
+        <v>57.58843501094239</v>
       </c>
       <c r="C46" t="n">
         <v>83.50897960862346</v>
@@ -1805,7 +1805,7 @@
         <v>109.6425750928735</v>
       </c>
       <c r="G47" t="n">
-        <v>90.79224538243359</v>
+        <v>90.79224538243361</v>
       </c>
       <c r="H47" t="n">
         <v>74.20501238122139</v>
@@ -1837,7 +1837,7 @@
         <v>46.85295463540691</v>
       </c>
       <c r="H48" t="n">
-        <v>35.44397226568548</v>
+        <v>35.44397226568547</v>
       </c>
       <c r="I48" t="n">
         <v>57.34687381872271</v>
@@ -1848,7 +1848,7 @@
         <v>49.86628936972966</v>
       </c>
       <c r="B49" t="n">
-        <v>35.22887903931366</v>
+        <v>35.22887903931367</v>
       </c>
       <c r="C49" t="n">
         <v>64.47275953883414</v>
@@ -1860,13 +1860,13 @@
         <v>8.90465394946721</v>
       </c>
       <c r="F49" t="n">
-        <v>25.12824656568778</v>
+        <v>25.12824656568777</v>
       </c>
       <c r="G49" t="n">
         <v>21.79603799871808</v>
       </c>
       <c r="H49" t="n">
-        <v>13.16034305553367</v>
+        <v>13.16034305553366</v>
       </c>
       <c r="I49" t="n">
         <v>31.96478403078973</v>
@@ -1895,7 +1895,7 @@
         <v>28.05024709254301</v>
       </c>
       <c r="H50" t="n">
-        <v>18.7655863709159</v>
+        <v>18.76558637091589</v>
       </c>
       <c r="I50" t="n">
         <v>38.18330884751312</v>
@@ -1906,7 +1906,7 @@
         <v>44.31945072241406</v>
       </c>
       <c r="B51" t="n">
-        <v>29.29512460492103</v>
+        <v>29.29512460492104</v>
       </c>
       <c r="C51" t="n">
         <v>59.71641912117549</v>
@@ -1915,7 +1915,7 @@
         <v>3.580283169629283</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.122150394881956</v>
+        <v>-3.122150394881963</v>
       </c>
       <c r="F51" t="n">
         <v>12.51534221185275</v>
@@ -1924,7 +1924,7 @@
         <v>10.77576454824904</v>
       </c>
       <c r="H51" t="n">
-        <v>3.542692031307602</v>
+        <v>3.542692031307588</v>
       </c>
       <c r="I51" t="n">
         <v>20.78108247288763</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>71.04567527524733</v>
+        <v>71.04567527524732</v>
       </c>
       <c r="B52" t="n">
         <v>57.04858054840282</v>
@@ -1953,7 +1953,7 @@
         <v>67.30314005039953</v>
       </c>
       <c r="H52" t="n">
-        <v>53.31324378822249</v>
+        <v>53.3132437882225</v>
       </c>
       <c r="I52" t="n">
         <v>78.37362817938262</v>
@@ -1970,7 +1970,7 @@
         <v>76.00676137001167</v>
       </c>
       <c r="D53" t="n">
-        <v>43.94279806855108</v>
+        <v>43.94279806855107</v>
       </c>
       <c r="E53" t="n">
         <v>34.96663218265837</v>
@@ -1993,7 +1993,7 @@
         <v>48.22723842827038</v>
       </c>
       <c r="B54" t="n">
-        <v>33.56194537514175</v>
+        <v>33.56194537514176</v>
       </c>
       <c r="C54" t="n">
         <v>62.96215925915055</v>
@@ -2002,7 +2002,7 @@
         <v>6.486888577255989</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5070877564274312</v>
+        <v>-0.5070877564274383</v>
       </c>
       <c r="F54" t="n">
         <v>15.19125997361515</v>
@@ -2011,7 +2011,7 @@
         <v>17.04700976686807</v>
       </c>
       <c r="H54" t="n">
-        <v>9.11013449991929</v>
+        <v>9.110134499919276</v>
       </c>
       <c r="I54" t="n">
         <v>27.01415740287761</v>
@@ -2022,7 +2022,7 @@
         <v>52.67110728143538</v>
       </c>
       <c r="B55" t="n">
-        <v>38.1655692519714</v>
+        <v>38.16556925197141</v>
       </c>
       <c r="C55" t="n">
         <v>66.81529039617742</v>
@@ -2031,7 +2031,7 @@
         <v>18.50314379032215</v>
       </c>
       <c r="E55" t="n">
-        <v>10.87641149845298</v>
+        <v>10.87641149845297</v>
       </c>
       <c r="F55" t="n">
         <v>27.08728435951441</v>
@@ -2040,7 +2040,7 @@
         <v>26.46539966309414</v>
       </c>
       <c r="H55" t="n">
-        <v>17.41152660053353</v>
+        <v>17.41152660053352</v>
       </c>
       <c r="I55" t="n">
         <v>36.61049000174901</v>
@@ -2060,7 +2060,7 @@
         <v>77.16188971965076</v>
       </c>
       <c r="E56" t="n">
-        <v>66.4759158834829</v>
+        <v>66.47591588348291</v>
       </c>
       <c r="F56" t="n">
         <v>85.2773479356247</v>
@@ -2086,7 +2086,7 @@
         <v>87.54565923792634</v>
       </c>
       <c r="D57" t="n">
-        <v>88.43610729690467</v>
+        <v>88.43610729690465</v>
       </c>
       <c r="E57" t="n">
         <v>77.21087976382212</v>
@@ -2118,7 +2118,7 @@
         <v>19.19902257441766</v>
       </c>
       <c r="E58" t="n">
-        <v>11.54063772821149</v>
+        <v>11.54063772821148</v>
       </c>
       <c r="F58" t="n">
         <v>27.70836327245985</v>
@@ -2127,7 +2127,7 @@
         <v>27.99913871816067</v>
       </c>
       <c r="H58" t="n">
-        <v>18.87898891122755</v>
+        <v>18.87898891122754</v>
       </c>
       <c r="I58" t="n">
         <v>38.13965850771331</v>
@@ -2138,7 +2138,7 @@
         <v>68.36666597348071</v>
       </c>
       <c r="B59" t="n">
-        <v>54.18322900917183</v>
+        <v>54.18322900917182</v>
       </c>
       <c r="C59" t="n">
         <v>80.51317062915936</v>
@@ -2156,7 +2156,7 @@
         <v>60.96926438910064</v>
       </c>
       <c r="H59" t="n">
-        <v>47.90897546222574</v>
+        <v>47.90897546222575</v>
       </c>
       <c r="I59" t="n">
         <v>71.8501827057064</v>
@@ -2167,7 +2167,7 @@
         <v>49.26719678857772</v>
       </c>
       <c r="B60" t="n">
-        <v>34.76036325020083</v>
+        <v>34.76036325020084</v>
       </c>
       <c r="C60" t="n">
         <v>63.81948141671332</v>
@@ -2185,7 +2185,7 @@
         <v>18.63185719631694</v>
       </c>
       <c r="H60" t="n">
-        <v>10.46419427030166</v>
+        <v>10.46419427030165</v>
       </c>
       <c r="I60" t="n">
         <v>28.58697624864171</v>
@@ -2211,7 +2211,7 @@
         <v>86.56740628901075</v>
       </c>
       <c r="G61" t="n">
-        <v>73.55734914422446</v>
+        <v>73.55734914422445</v>
       </c>
       <c r="H61" t="n">
         <v>58.91848710360473</v>
@@ -2237,7 +2237,7 @@
         <v>55.75141257328856</v>
       </c>
       <c r="F62" t="n">
-        <v>74.02635272641847</v>
+        <v>74.02635272641845</v>
       </c>
       <c r="G62" t="n">
         <v>62.58818406813774</v>
@@ -2283,7 +2283,7 @@
         <v>49.20418535473446</v>
       </c>
       <c r="B64" t="n">
-        <v>34.62865056769693</v>
+        <v>34.62865056769694</v>
       </c>
       <c r="C64" t="n">
         <v>63.77359429364432</v>
@@ -2295,13 +2295,13 @@
         <v>0.1466779031861947</v>
       </c>
       <c r="F64" t="n">
-        <v>15.86023941405575</v>
+        <v>15.86023941405574</v>
       </c>
       <c r="G64" t="n">
         <v>18.61482107152283</v>
       </c>
       <c r="H64" t="n">
-        <v>10.50199511707221</v>
+        <v>10.5019951170722</v>
       </c>
       <c r="I64" t="n">
         <v>28.57242613537511</v>
@@ -2318,7 +2318,7 @@
         <v>86.68833708036358</v>
       </c>
       <c r="D65" t="n">
-        <v>87.69406966109241</v>
+        <v>87.6940696610924</v>
       </c>
       <c r="E65" t="n">
         <v>76.56234438928092</v>
@@ -2330,7 +2330,7 @@
         <v>76.70449382183148</v>
       </c>
       <c r="H65" t="n">
-        <v>61.65243673560728</v>
+        <v>61.6524367356073</v>
       </c>
       <c r="I65" t="n">
         <v>87.95541066498743</v>
@@ -2399,7 +2399,7 @@
         <v>51.82018322265782</v>
       </c>
       <c r="B68" t="n">
-        <v>37.36228942442402</v>
+        <v>37.36228942442403</v>
       </c>
       <c r="C68" t="n">
         <v>66.09562960782166</v>
@@ -2408,16 +2408,16 @@
         <v>17.80726500622664</v>
       </c>
       <c r="E68" t="n">
-        <v>10.21218526869448</v>
+        <v>10.21218526869447</v>
       </c>
       <c r="F68" t="n">
-        <v>26.46620544656898</v>
+        <v>26.46620544656897</v>
       </c>
       <c r="G68" t="n">
         <v>24.9316606080276</v>
       </c>
       <c r="H68" t="n">
-        <v>15.94406428983951</v>
+        <v>15.9440642898395</v>
       </c>
       <c r="I68" t="n">
         <v>35.08132149578472</v>
@@ -2446,7 +2446,7 @@
         <v>90.84335375681593</v>
       </c>
       <c r="H69" t="n">
-        <v>74.09160984090974</v>
+        <v>74.09160984090975</v>
       </c>
       <c r="I69" t="n">
         <v>102.2410995746179</v>
@@ -2457,7 +2457,7 @@
         <v>50.59119056082071</v>
       </c>
       <c r="B70" t="n">
-        <v>35.76873350185323</v>
+        <v>35.76873350185324</v>
       </c>
       <c r="C70" t="n">
         <v>65.10064608105188</v>
@@ -2466,16 +2466,16 @@
         <v>17.01906851869763</v>
       </c>
       <c r="E70" t="n">
-        <v>9.579340749370594</v>
+        <v>9.579340749370587</v>
       </c>
       <c r="F70" t="n">
-        <v>25.70142495113806</v>
+        <v>25.70142495113805</v>
       </c>
       <c r="G70" t="n">
         <v>23.29570480419639</v>
       </c>
       <c r="H70" t="n">
-        <v>14.70340705976878</v>
+        <v>14.70340705976877</v>
       </c>
       <c r="I70" t="n">
         <v>33.46485231022081</v>
@@ -2533,7 +2533,7 @@
         <v>42.18359297103085</v>
       </c>
       <c r="H72" t="n">
-        <v>31.19278872068562</v>
+        <v>31.19278872068561</v>
       </c>
       <c r="I72" t="n">
         <v>52.70116784776342</v>
